--- a/Laboratório 0.1.xlsx
+++ b/Laboratório 0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Fichas\Ars-Magica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C85FE139-C628-43A2-8044-42C9DA1D251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E530CC-A27A-480F-8D93-84C61F7BD115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{E57A8CEA-6BF6-403C-9904-20B6F1A17C37}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -145,30 +145,30 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1290DA6D-6192-486A-AFD5-1ED80A9B6EE4}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,244 +532,244 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="8" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="5"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="11">
+      <c r="A6" s="4"/>
+      <c r="B6" s="12">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8">
         <v>500</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="11">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="8">
         <v>50</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="5"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="8" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="5"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="12">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6">
         <f>VLOOKUP(B6,S28:U39,3,1)</f>
-        <v>-4</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="12">
+        <v>-2</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6">
         <f>VLOOKUP(F6,W28:Y39,3,1)</f>
         <v>-4</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="12">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="6">
         <f>VLOOKUP(J6,AA28:AC39,3,1)</f>
         <v>-4</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="26" spans="19:29" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="W27" s="1" t="s">
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="W27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="AA27" s="1" t="s">
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="AA27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
     </row>
     <row r="28" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S28" s="3">
+      <c r="S28" s="2">
         <v>1000</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="2">
         <v>2000</v>
       </c>
       <c r="U28">
         <v>-4</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28" s="2">
         <v>500</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X28" s="2">
         <v>1000</v>
       </c>
       <c r="Y28">
@@ -786,22 +786,22 @@
       </c>
     </row>
     <row r="29" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S29" s="3">
+      <c r="S29" s="2">
         <f>T28+1</f>
         <v>2001</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="2">
         <f>T28*2</f>
         <v>4000</v>
       </c>
       <c r="U29">
         <v>-3</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="2">
         <f>X28+1</f>
         <v>1001</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="2">
         <v>2000</v>
       </c>
       <c r="Y29">
@@ -811,7 +811,7 @@
         <f>AB28+1</f>
         <v>101</v>
       </c>
-      <c r="AB29" s="4">
+      <c r="AB29" s="3">
         <f>AB28*1.7</f>
         <v>170</v>
       </c>
@@ -820,22 +820,22 @@
       </c>
     </row>
     <row r="30" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S30" s="3">
+      <c r="S30" s="2">
         <f t="shared" ref="S30:S39" si="0">T29+1</f>
         <v>4001</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="2">
         <f t="shared" ref="T30" si="1">T29*2</f>
         <v>8000</v>
       </c>
       <c r="U30">
         <v>-2</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="2">
         <f t="shared" ref="W30:W39" si="2">X29+1</f>
         <v>2001</v>
       </c>
-      <c r="X30" s="3">
+      <c r="X30" s="2">
         <v>5000</v>
       </c>
       <c r="Y30">
@@ -845,7 +845,7 @@
         <f t="shared" ref="AA30:AA39" si="3">AB29+1</f>
         <v>171</v>
       </c>
-      <c r="AB30" s="4">
+      <c r="AB30" s="3">
         <f t="shared" ref="AB30:AB39" si="4">AB29*1.7</f>
         <v>289</v>
       </c>
@@ -854,21 +854,21 @@
       </c>
     </row>
     <row r="31" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S31" s="3">
+      <c r="S31" s="2">
         <f t="shared" si="0"/>
         <v>8001</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31" s="2">
         <v>12000</v>
       </c>
       <c r="U31">
         <v>-1</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W31" s="2">
         <f t="shared" si="2"/>
         <v>5001</v>
       </c>
-      <c r="X31" s="3">
+      <c r="X31" s="2">
         <v>10000</v>
       </c>
       <c r="Y31">
@@ -878,7 +878,7 @@
         <f t="shared" si="3"/>
         <v>290</v>
       </c>
-      <c r="AB31" s="4">
+      <c r="AB31" s="3">
         <f t="shared" si="4"/>
         <v>491.3</v>
       </c>
@@ -887,21 +887,21 @@
       </c>
     </row>
     <row r="32" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S32" s="3">
+      <c r="S32" s="2">
         <f t="shared" si="0"/>
         <v>12001</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="2">
         <v>25000</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="2">
         <f t="shared" si="2"/>
         <v>10001</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X32" s="2">
         <v>15000</v>
       </c>
       <c r="Y32">
@@ -911,7 +911,7 @@
         <f t="shared" si="3"/>
         <v>492.3</v>
       </c>
-      <c r="AB32" s="4">
+      <c r="AB32" s="3">
         <f t="shared" si="4"/>
         <v>835.21</v>
       </c>
@@ -920,21 +920,21 @@
       </c>
     </row>
     <row r="33" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S33" s="3">
+      <c r="S33" s="2">
         <f t="shared" si="0"/>
         <v>25001</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="2">
         <v>50000</v>
       </c>
       <c r="U33">
         <v>1</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="2">
         <f t="shared" si="2"/>
         <v>15001</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="2">
         <v>30000</v>
       </c>
       <c r="Y33">
@@ -944,7 +944,7 @@
         <f t="shared" si="3"/>
         <v>836.21</v>
       </c>
-      <c r="AB33" s="4">
+      <c r="AB33" s="3">
         <f t="shared" si="4"/>
         <v>1419.857</v>
       </c>
@@ -953,21 +953,21 @@
       </c>
     </row>
     <row r="34" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S34" s="3">
+      <c r="S34" s="2">
         <f t="shared" si="0"/>
         <v>50001</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34" s="2">
         <v>75000</v>
       </c>
       <c r="U34">
         <v>2</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="2">
         <f t="shared" si="2"/>
         <v>30001</v>
       </c>
-      <c r="X34" s="3">
+      <c r="X34" s="2">
         <v>50000</v>
       </c>
       <c r="Y34">
@@ -977,7 +977,7 @@
         <f t="shared" si="3"/>
         <v>1420.857</v>
       </c>
-      <c r="AB34" s="4">
+      <c r="AB34" s="3">
         <f t="shared" si="4"/>
         <v>2413.7568999999999</v>
       </c>
@@ -986,21 +986,21 @@
       </c>
     </row>
     <row r="35" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S35" s="3">
+      <c r="S35" s="2">
         <f t="shared" si="0"/>
         <v>75001</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="2">
         <v>100000</v>
       </c>
       <c r="U35">
         <v>3</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="2">
         <f t="shared" si="2"/>
         <v>50001</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="2">
         <v>100000</v>
       </c>
       <c r="Y35">
@@ -1010,7 +1010,7 @@
         <f t="shared" si="3"/>
         <v>2414.7568999999999</v>
       </c>
-      <c r="AB35" s="4">
+      <c r="AB35" s="3">
         <f t="shared" si="4"/>
         <v>4103.3867299999993</v>
       </c>
@@ -1019,21 +1019,21 @@
       </c>
     </row>
     <row r="36" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S36" s="3">
+      <c r="S36" s="2">
         <f t="shared" si="0"/>
         <v>100001</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T36" s="2">
         <v>150000</v>
       </c>
       <c r="U36">
         <v>4</v>
       </c>
-      <c r="W36" s="3">
+      <c r="W36" s="2">
         <f t="shared" si="2"/>
         <v>100001</v>
       </c>
-      <c r="X36" s="3">
+      <c r="X36" s="2">
         <v>125000</v>
       </c>
       <c r="Y36">
@@ -1043,7 +1043,7 @@
         <f t="shared" si="3"/>
         <v>4104.3867299999993</v>
       </c>
-      <c r="AB36" s="4">
+      <c r="AB36" s="3">
         <f t="shared" si="4"/>
         <v>6975.7574409999988</v>
       </c>
@@ -1052,21 +1052,21 @@
       </c>
     </row>
     <row r="37" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S37" s="3">
+      <c r="S37" s="2">
         <f t="shared" si="0"/>
         <v>150001</v>
       </c>
-      <c r="T37" s="3">
+      <c r="T37" s="2">
         <v>200000</v>
       </c>
       <c r="U37">
         <v>5</v>
       </c>
-      <c r="W37" s="3">
+      <c r="W37" s="2">
         <f t="shared" si="2"/>
         <v>125001</v>
       </c>
-      <c r="X37" s="3">
+      <c r="X37" s="2">
         <v>150000</v>
       </c>
       <c r="Y37">
@@ -1076,7 +1076,7 @@
         <f t="shared" si="3"/>
         <v>6976.7574409999988</v>
       </c>
-      <c r="AB37" s="4">
+      <c r="AB37" s="3">
         <f t="shared" si="4"/>
         <v>11858.787649699998</v>
       </c>
@@ -1085,21 +1085,21 @@
       </c>
     </row>
     <row r="38" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S38" s="3">
+      <c r="S38" s="2">
         <f t="shared" si="0"/>
         <v>200001</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38" s="2">
         <v>250000</v>
       </c>
       <c r="U38">
         <v>6</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="2">
         <f t="shared" si="2"/>
         <v>150001</v>
       </c>
-      <c r="X38" s="3">
+      <c r="X38" s="2">
         <v>200000</v>
       </c>
       <c r="Y38">
@@ -1109,7 +1109,7 @@
         <f t="shared" si="3"/>
         <v>11859.787649699998</v>
       </c>
-      <c r="AB38" s="4">
+      <c r="AB38" s="3">
         <f t="shared" si="4"/>
         <v>20159.939004489996</v>
       </c>
@@ -1118,21 +1118,21 @@
       </c>
     </row>
     <row r="39" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="S39" s="3">
+      <c r="S39" s="2">
         <f t="shared" si="0"/>
         <v>250001</v>
       </c>
-      <c r="T39" s="3">
+      <c r="T39" s="2">
         <v>500000</v>
       </c>
       <c r="U39">
         <v>7</v>
       </c>
-      <c r="W39" s="3">
+      <c r="W39" s="2">
         <f t="shared" si="2"/>
         <v>200001</v>
       </c>
-      <c r="X39" s="3">
+      <c r="X39" s="2">
         <v>300000</v>
       </c>
       <c r="Y39">
@@ -1142,7 +1142,7 @@
         <f t="shared" si="3"/>
         <v>20160.939004489996</v>
       </c>
-      <c r="AB39" s="4">
+      <c r="AB39" s="3">
         <f t="shared" si="4"/>
         <v>34271.896307632989</v>
       </c>
@@ -1151,26 +1151,21 @@
       </c>
     </row>
     <row r="40" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="T40" s="2"/>
-      <c r="AB40" s="4"/>
+      <c r="T40" s="1"/>
+      <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="T41" s="2"/>
-      <c r="AB41" s="4"/>
+      <c r="T41" s="1"/>
+      <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="19:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="AB42" s="4"/>
+      <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="19:29" x14ac:dyDescent="0.25">
-      <c r="AB43" s="4"/>
+      <c r="AB43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="J11:L12"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
     <mergeCell ref="AA27:AC27"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="J6:L7"/>
@@ -1183,6 +1178,11 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
